--- a/RC/recipe.xlsx
+++ b/RC/recipe.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/rozim9251_masseyhigh_school_nz/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/rozim9251_masseyhigh_school_nz/Documents/COM201/RC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{793429DA-ACF7-41A9-9AFE-5A97904B3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B1B687F-6D23-4BDA-B242-396C217503CC}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{793429DA-ACF7-41A9-9AFE-5A97904B3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC28D8A6-07F3-4E33-9B47-2D1BDB58763B}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="4155" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Comparer" sheetId="1" r:id="rId1"/>
     <sheet name="Area | Perimeter" sheetId="2" r:id="rId2"/>
-    <sheet name="Recipe Cost Calculator" sheetId="4" r:id="rId3"/>
+    <sheet name="play area" sheetId="5" r:id="rId3"/>
+    <sheet name="Quick_test" sheetId="6" r:id="rId4"/>
+    <sheet name="Recipe Cost Calculator" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>Price Comparison Tool</t>
   </si>
@@ -171,37 +173,46 @@
     <t>Cost to make</t>
   </si>
   <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
+    <t>Rogan Josh Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Courgette</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>unsweetened yoghurt</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Per Serve: </t>
+  </si>
+  <si>
     <t>lamb mince</t>
   </si>
   <si>
-    <t>Rogan Josh Sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Courgette</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>black pepper</t>
-  </si>
-  <si>
-    <t>unsweetened yoghurt</t>
-  </si>
-  <si>
-    <t>olive oil</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Per Serve: </t>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>eggs</t>
   </si>
 </sst>
 </file>
@@ -209,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,15 +508,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -516,9 +527,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,16 +540,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -548,15 +559,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,7 +889,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -886,7 +898,7 @@
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -895,7 +907,7 @@
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -904,7 +916,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -972,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>10.810810810810811</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>11.76470588235294</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1080,7 +1092,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>16.499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1152,7 +1164,7 @@
         <v>17.368421052631579</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1195,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
@@ -1192,7 +1204,7 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1224,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>18.849555921538759</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1275,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>23</v>
@@ -1280,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1293,7 +1305,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>26</v>
@@ -1304,7 +1316,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>27</v>
@@ -1318,14 +1330,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
@@ -1336,7 +1348,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
@@ -1350,7 +1362,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1375,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>26</v>
@@ -1377,14 +1389,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>28</v>
@@ -1395,7 +1407,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>29</v>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -1422,7 +1434,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>26</v>
@@ -1433,7 +1445,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
@@ -1444,7 +1456,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
@@ -1458,14 +1470,14 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
         <v>33</v>
@@ -1476,7 +1488,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>34</v>
@@ -1487,7 +1499,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>29</v>
@@ -1507,14 +1519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53989F0C-4682-48E5-86E1-4253CFB56C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92BA7CB-66B6-4A0C-9AEE-190081328EA4}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1525,34 +1537,34 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="21">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="26.25">
-      <c r="A4" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="E4" s="48" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="E4" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>39</v>
       </c>
@@ -1575,15 +1587,425 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="31">
+        <v>2</v>
+      </c>
+      <c r="F6" s="32">
+        <v>5</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="33">
+        <f>E6/F6*A6</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>500</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="34">
+        <v>6</v>
+      </c>
+      <c r="F7" s="35">
+        <v>450</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="33">
+        <f>E7/F7*A7</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="37">
+        <v>18.5</v>
+      </c>
+      <c r="F8" s="38">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" ref="H8:H10" si="0">E8/F8*A8</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="34">
+        <v>2</v>
+      </c>
+      <c r="F9" s="35">
+        <v>30</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="36">
+        <f>E9/F9*A9</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="F10" s="38">
+        <v>30</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>250</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="F11" s="35">
+        <v>600</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="36">
+        <f>E11/F11*A11</f>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>7</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="40">
+        <v>10</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="36">
+        <f>E12/F12*A12</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="20">
+        <f>SUM(H6:H13)</f>
+        <v>28.351666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="F16" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="48"/>
+      <c r="H16" s="18">
+        <f>H14/B2</f>
+        <v>3.150185185185185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F763B5-B2E8-4072-A923-7261BAAE3C6C}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="E4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>500</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8</v>
+      </c>
+      <c r="F6" s="32">
+        <v>250</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="33">
+        <f>E6/F6*A6</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>2</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="49">
+        <v>10</v>
+      </c>
+      <c r="F7" s="35">
+        <v>8</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="33">
+        <f>E7/F7*A7</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="20">
+        <f>SUM(H6:H8)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="F11" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="48"/>
+      <c r="H11" s="18">
+        <f>H9/B2</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="F11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53989F0C-4682-48E5-86E1-4253CFB56C21}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="42"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="E4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23">
         <v>1200</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E6" s="31">
         <v>14.8</v>
@@ -1592,22 +2014,22 @@
         <v>500</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="33">
         <f>E6/F6*A6</f>
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>500</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="34">
         <v>6</v>
@@ -1616,22 +2038,22 @@
         <v>450</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" s="33">
         <f>E7/F7*A7</f>
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1000</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="37">
         <v>18.5</v>
@@ -1640,22 +2062,22 @@
         <v>1000</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8:H10" si="0">E8/F8*A8</f>
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>6</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E9" s="34">
         <v>2</v>
@@ -1664,14 +2086,14 @@
         <v>30</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="36">
-        <f t="shared" si="0"/>
+        <f>E9/F9*A9</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -1688,19 +2110,19 @@
         <v>30</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="39">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>250</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>51</v>
@@ -1712,19 +2134,19 @@
         <v>600</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="36">
-        <f>E11/(F11*1000)*A11</f>
-        <v>1.3749999999999999E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f>E11/F11*A11</f>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>7</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>52</v>
@@ -1736,31 +2158,31 @@
         <v>1000</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H12" s="36">
-        <f>E12/(F12*1000)*A12</f>
-        <v>7.0000000000000007E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+        <f>E12/F12*A12</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="20">
         <f>SUM(H6:H13)</f>
-        <v>61.22811166666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="16" spans="1:8" ht="21">
-      <c r="F16" s="46" t="s">
+        <v>62.671666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="F16" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="18">
         <f>H14/B2</f>
-        <v>6.1228111666666667</v>
+        <v>6.9635185185185184</v>
       </c>
     </row>
   </sheetData>
@@ -2013,13 +2435,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
+    <ds:schemaRef ds:uri="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/RC/recipe.xlsx
+++ b/RC/recipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25525"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/rozim9251_masseyhigh_school_nz/Documents/COM201/RC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{793429DA-ACF7-41A9-9AFE-5A97904B3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC28D8A6-07F3-4E33-9B47-2D1BDB58763B}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="8_{793429DA-ACF7-41A9-9AFE-5A97904B3CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE66151C-DF38-4E53-BED0-95AD1B9F8CC3}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{8355E7AF-B006-48C4-BF9B-25D6A2537B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Comparer" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="58">
   <si>
     <t>Price Comparison Tool</t>
   </si>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">Per Serve: </t>
   </si>
   <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
     <t>lamb mince</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>eggs</t>
   </si>
 </sst>
 </file>
@@ -220,9 +220,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -504,19 +504,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -527,9 +556,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -540,19 +569,23 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,7 +601,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +921,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
@@ -898,16 +930,16 @@
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="21">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -916,7 +948,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -948,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -984,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1052,7 @@
         <v>10.810810810810811</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1088,7 @@
         <v>11.76470588235294</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1124,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1128,7 +1160,7 @@
         <v>16.499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1164,15 +1196,15 @@
         <v>17.368421052631579</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G6:K11">
@@ -1195,7 +1227,7 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
@@ -1204,7 +1236,7 @@
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1256,7 @@
         <v>3.1415926535897931</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +1275,7 @@
         <v>18.849555921538759</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1294,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1275,7 +1307,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>23</v>
@@ -1292,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1305,7 +1337,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="11" t="s">
         <v>26</v>
@@ -1316,7 +1348,7 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11"/>
       <c r="B12" s="11" t="s">
         <v>27</v>
@@ -1330,14 +1362,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11"/>
       <c r="B14" s="8" t="s">
         <v>28</v>
@@ -1348,7 +1380,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11"/>
       <c r="B15" s="8" t="s">
         <v>29</v>
@@ -1362,7 +1394,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1407,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>26</v>
@@ -1389,14 +1421,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>28</v>
@@ -1407,7 +1439,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>29</v>
@@ -1421,7 +1453,7 @@
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -1434,7 +1466,7 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
         <v>26</v>
@@ -1445,7 +1477,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
         <v>27</v>
@@ -1456,7 +1488,7 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
         <v>32</v>
@@ -1470,14 +1502,14 @@
         <v>13.85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
         <v>33</v>
@@ -1488,7 +1520,7 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
         <v>34</v>
@@ -1499,7 +1531,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
         <v>29</v>
@@ -1523,10 +1555,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1537,13 +1569,13 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -1551,20 +1583,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:8" ht="26.25">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1">
       <c r="A5" s="21" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -1611,7 +1643,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="25">
         <v>500</v>
       </c>
@@ -1635,7 +1667,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="25">
         <v>1000</v>
       </c>
@@ -1659,7 +1691,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -1707,7 +1739,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="25">
         <v>250</v>
       </c>
@@ -1731,7 +1763,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="27">
         <v>7</v>
       </c>
@@ -1755,7 +1787,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="G14" s="19" t="s">
         <v>53</v>
       </c>
@@ -1764,11 +1796,11 @@
         <v>28.351666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F16" s="48" t="s">
+    <row r="16" spans="1:8" ht="21">
+      <c r="F16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="18">
         <f>H14/B2</f>
         <v>3.150185185185185</v>
@@ -1787,13 +1819,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F763B5-B2E8-4072-A923-7261BAAE3C6C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1804,13 +1836,13 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -1818,20 +1850,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:8" ht="26.25">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>39</v>
       </c>
@@ -1854,74 +1886,96 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="23">
-        <v>500</v>
+        <v>6</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E6" s="31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" s="32">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="33">
         <f>E6/F6*A6</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="44">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="49">
-        <v>10</v>
-      </c>
-      <c r="F7" s="35">
-        <v>8</v>
-      </c>
-      <c r="G7" s="35"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="46">
+        <v>5</v>
+      </c>
+      <c r="F7" s="47">
+        <v>6</v>
+      </c>
+      <c r="G7" s="47"/>
       <c r="H7" s="33">
-        <f>E7/F7*A7</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="19" t="s">
+        <f t="shared" ref="H7:H8" si="0">E7/F7*A7</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="34">
+        <v>15</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+      <c r="G10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="20">
-        <f>SUM(H6:H8)</f>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F11" s="48" t="s">
+      <c r="H10" s="20">
+        <f>SUM(H6:H9)</f>
+        <v>15.166666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21">
+      <c r="F12" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="48"/>
-      <c r="H11" s="18">
-        <f>H9/B2</f>
-        <v>6.166666666666667</v>
+      <c r="G12" s="52"/>
+      <c r="H12" s="18">
+        <f>H10/B2</f>
+        <v>5.0555555555555562</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1936,7 +1990,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1947,13 +2001,13 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="42"/>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21">
       <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
@@ -1961,20 +2015,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:8" ht="26.25">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +2051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="23">
         <v>1200</v>
       </c>
@@ -2005,7 +2059,7 @@
         <v>46</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="31">
         <v>14.8</v>
@@ -2021,7 +2075,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="25">
         <v>500</v>
       </c>
@@ -2045,7 +2099,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="25">
         <v>1000</v>
       </c>
@@ -2069,7 +2123,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="25">
         <v>6</v>
       </c>
@@ -2093,7 +2147,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -2117,7 +2171,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="25">
         <v>250</v>
       </c>
@@ -2141,7 +2195,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="27">
         <v>7</v>
       </c>
@@ -2165,7 +2219,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="G14" s="19" t="s">
         <v>53</v>
       </c>
@@ -2174,12 +2228,12 @@
         <v>62.671666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="F16" s="48" t="s">
+    <row r="15" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="16" spans="1:8" ht="21">
+      <c r="F16" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="18">
         <f>H14/B2</f>
         <v>6.9635185185185184</v>
@@ -2197,12 +2251,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BA463C036C06F4F95EEE3DD0F4493E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25aed4aa70de01e274ca06c80e31bb12">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2ba0c6a2-e197-4036-966a-a529f7e95fa3" xmlns:ns4="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12385f472dc4d7d3e3f800da863c87cd" ns3:_="" ns4:_="">
     <xsd:import namespace="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
@@ -2425,47 +2488,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2ba0c6a2-e197-4036-966a-a529f7e95fa3"/>
-    <ds:schemaRef ds:uri="e03aa4bf-b6ec-416e-afe3-ff8a06fe72c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A591B0A6-E1E7-46D9-954A-504B018E464E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB6493B-6CF8-4398-8D4D-A9E17E83D758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0F04F32-E9AB-4361-B681-388B8D86E463}"/>
 </file>